--- a/Parameters/VIP.xlsx
+++ b/Parameters/VIP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\DES.LM.Reports\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dim-Dim\MyData\Common Work Place\Projects\DES.LM.Reports\Parameters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8CF8D1E-294A-4FDC-8896-42D948701DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603B9C49-4971-4F00-B3E1-BB1155A93875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
+    <workbookView xWindow="-28920" yWindow="-11175" windowWidth="29040" windowHeight="17640" xr2:uid="{184954BB-DCC8-4745-A6E6-04D458187FA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$1:$A$1</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
